--- a/biology/Médecine/André_Bernheim/André_Bernheim.xlsx
+++ b/biology/Médecine/André_Bernheim/André_Bernheim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Bernheim</t>
+          <t>André_Bernheim</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Bernheim (Paris 10e, 25 octobre 1877 - Paris 17e, 21 décembre 1963[1]) est un médecin juif français, personnalité de la communauté juive française, père de l'historienne Renée Neher-Bernheim et beau-père du philosophe André Neher.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Bernheim (Paris 10e, 25 octobre 1877 - Paris 17e, 21 décembre 1963) est un médecin juif français, personnalité de la communauté juive française, père de l'historienne Renée Neher-Bernheim et beau-père du philosophe André Neher.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Bernheim</t>
+          <t>André_Bernheim</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,11 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Bernheim est né le 25 octobre 1877 à Paris[2],[3].
-Consistoire Central
-André Bernheim est secrétaire-rapporteur du Consistoire central[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Bernheim est né le 25 octobre 1877 à Paris,.
 </t>
         </is>
       </c>
@@ -526,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Bernheim</t>
+          <t>André_Bernheim</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,12 +553,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Éléments biographiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Consistoire Central</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Bernheim est secrétaire-rapporteur du Consistoire central,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>André_Bernheim</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Bernheim</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur en 1925[6]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur en 1925</t>
         </is>
       </c>
     </row>
